--- a/alumnosdatos1.xlsx
+++ b/alumnosdatos1.xlsx
@@ -603,7 +603,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="20" customHeight="1">
+    <row r="9" ht="15" customHeight="1">
       <c r="A9" s="4" t="n">
         <v>1</v>
       </c>
